--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,24 +5,36 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://futureworkforcecompany-my.sharepoint.com/personal/diana_gradinaru_fwfcompany_com/Documents/Documents/POCs/APIs_and_db/Dispatcher and Performer/APIs_and_db_Performer/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://futureworkforcecompany-my.sharepoint.com/personal/diana_gradinaru_fwfcompany_com/Documents/Documents/POCs/APIs_and_db/New Repos for CR/api-db-performer_v2/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEE2AF46-41D1-4087-B514-C86C7B6B3B52}"/>
+  <xr:revisionPtr revIDLastSave="148" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F07DE308-A9D6-4214-9E0A-96246A7CA7FE}"/>
   <bookViews>
-    <workbookView xWindow="-24" yWindow="216" windowWidth="23064" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28500" yWindow="2355" windowWidth="23070" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
     <sheet name="Constants" sheetId="2" r:id="rId2"/>
     <sheet name="Assets" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -158,9 +170,6 @@
     <t>strActorsEndpoint</t>
   </si>
   <si>
-    <t>https://api.tvmaze.com/shows/{0}?embed=cast</t>
-  </si>
-  <si>
     <t>The API endpoint to retrieve cast for each show based on showID</t>
   </si>
   <si>
@@ -176,18 +185,6 @@
     <t>Email address to send the excel file to.</t>
   </si>
   <si>
-    <t>Hello,
-Here is the excel file containing all movies with the string '{0}' in their title.
-Regards, 
-Diana</t>
-  </si>
-  <si>
-    <t>Email body</t>
-  </si>
-  <si>
-    <t>The requested movies</t>
-  </si>
-  <si>
     <t>Email subject</t>
   </si>
   <si>
@@ -197,26 +194,116 @@
     <t>strEmailSubject</t>
   </si>
   <si>
-    <t>Hello,
-The database does not contain any movies with the string '{0}' in their title.
-Regards, 
-Diana</t>
-  </si>
-  <si>
     <t>strEmailBodyWithFile</t>
   </si>
   <si>
-    <t>diana.gradinaru@fwfcompany.com</t>
-  </si>
-  <si>
     <t>Api_Poc</t>
+  </si>
+  <si>
+    <t>TvMazeApiActorsEndpoint</t>
+  </si>
+  <si>
+    <t>ApiPocSendTo</t>
+  </si>
+  <si>
+    <t>ApiMailBodyNoFile</t>
+  </si>
+  <si>
+    <t>Email body in case no movies were found and no file will be attached.</t>
+  </si>
+  <si>
+    <t>ApiMailBodyWithFile</t>
+  </si>
+  <si>
+    <t>Email body in case movies with search string were found and the file will be attached.</t>
+  </si>
+  <si>
+    <t>ApiMailSubject</t>
+  </si>
+  <si>
+    <t>sqlInsertIntoActors</t>
+  </si>
+  <si>
+    <t>SQL query to insert into the actors table the actor name, actor id and movie id</t>
+  </si>
+  <si>
+    <t>INSERT INTO actors
+VALUES (@actor_name, @actor_id, @movie_id)</t>
+  </si>
+  <si>
+    <t>sqlInsertIntoMovies</t>
+  </si>
+  <si>
+    <t>INSERT INTO movies
+VALUES (@movie_id, @movie_name)</t>
+  </si>
+  <si>
+    <t>SQL query to insert into the movies table the movie id and movie name</t>
+  </si>
+  <si>
+    <t>sqlSelectJoinedTables</t>
+  </si>
+  <si>
+    <t>SQL query to select the joined tables movies and actors</t>
+  </si>
+  <si>
+    <t>strErrorMessageStatusCode</t>
+  </si>
+  <si>
+    <t>Status code:  {0}, request can not be performed</t>
+  </si>
+  <si>
+    <t>Error message in case the API call yields a status call other than 200 therefore the request was not performed</t>
+  </si>
+  <si>
+    <t>strFilePath</t>
+  </si>
+  <si>
+    <t>Location where the generated excel file is saved</t>
+  </si>
+  <si>
+    <t>Data\Output\MovieWithTitle_{0}.xlsx</t>
+  </si>
+  <si>
+    <t>strSheetName</t>
+  </si>
+  <si>
+    <t>Sheet1</t>
+  </si>
+  <si>
+    <t>Name of excel sheet where data is saved</t>
+  </si>
+  <si>
+    <t>strMessageNoMovies</t>
+  </si>
+  <si>
+    <t>No movies found with the requesteted search string '{0}' in their title.</t>
+  </si>
+  <si>
+    <t>Email message in case no movies were found with the search string requested.</t>
+  </si>
+  <si>
+    <t>Search string is empty, query not performed and mail not sent.</t>
+  </si>
+  <si>
+    <t>Message in case search string is empty</t>
+  </si>
+  <si>
+    <t>strStringEmpty</t>
+  </si>
+  <si>
+    <t>SELECT actors.actor_name, actors.actor_id, movies.movie_name, actors.movie_id
+FROM actors
+INNER JOIN movies 
+ON actors.movie_id = movies.movie_id
+WHERE movies.movie_name LIKE '%{0}%'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -241,12 +328,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -265,11 +346,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -279,10 +359,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -595,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z992"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -645,7 +723,7 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>42</v>
@@ -659,7 +737,7 @@
         <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>30</v>
@@ -671,7 +749,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>22</v>
@@ -679,78 +757,111 @@
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>45</v>
+    <row r="8" spans="1:26" ht="28.8">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="28.8">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="72">
       <c r="A10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:26" ht="87.6" customHeight="1">
-      <c r="A11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="14.4">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="s">
-        <v>53</v>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="86.4">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>56</v>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -1711,18 +1822,10 @@
     <row r="990" ht="14.25" customHeight="1"/>
     <row r="991" ht="14.25" customHeight="1"/>
     <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B10" r:id="rId1" xr:uid="{E9622000-77CF-4AD3-9A0C-6D402F9822B6}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2894,7 +2997,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2941,11 +3044,76 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
